--- a/tracing/datadog/datadog.xlsx
+++ b/tracing/datadog/datadog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\umejima\work\public\tracing\datadog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB84DD64-92D3-4611-A3CE-F509DEBC3BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B38A92-92B5-4E78-BBCE-9618F3D68C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="3900" windowWidth="22290" windowHeight="11520" xr2:uid="{4234102D-1BA3-4F79-B53D-24BE144D8D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4234102D-1BA3-4F79-B53D-24BE144D8D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>datadog Sign In</t>
     <phoneticPr fontId="2"/>
@@ -113,6 +113,19 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 8126 が使われているエラーがでる場合 `lsof -i -P | grep "LISTEN"` で調べて process kill すれば OK</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -581,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79FB154-9897-4923-886D-D455E7599E1B}">
-  <dimension ref="B2:B72"/>
+  <dimension ref="B2:I72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,52 +604,55 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
